--- a/ONCHO/Impact Assessments/DRC/cd_oncho_3_elisa_202211.xlsx
+++ b/ONCHO/Impact Assessments/DRC/cd_oncho_3_elisa_202211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -111,19 +111,10 @@
     <t>Le code a trois chiffre associé à chaque école</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>d_code_id</t>
   </si>
   <si>
-    <t>Scanner l’identification (Identifiant) du Participant</t>
-  </si>
-  <si>
-    <t>regex(., '^SA [0-9]{5} [0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>Le format du QR code est incorrect. Ex s'un format correct : SA 00001 22</t>
+    <t>Sélectionnez le code d'identification unique du participant</t>
   </si>
   <si>
     <t>select_one results</t>
@@ -293,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -342,16 +333,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,6 +362,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -372,15 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +393,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -404,23 +402,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,28 +440,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +470,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,19 +521,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,61 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,13 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +739,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -782,21 +812,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -821,172 +836,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,11 +1401,11 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:I8"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1634,24 +1625,20 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:12">
+    <row r="10" s="3" customFormat="1" spans="1:12">
       <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="6"/>
       <c r="J10" s="6" t="s">
         <v>18</v>
@@ -1661,13 +1648,13 @@
     </row>
     <row r="11" s="19" customFormat="1" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="31"/>
@@ -1682,13 +1669,13 @@
     </row>
     <row r="12" s="19" customFormat="1" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="31"/>
@@ -1702,10 +1689,10 @@
     </row>
     <row r="13" s="19" customFormat="1" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1720,10 +1707,10 @@
     </row>
     <row r="14" s="19" customFormat="1" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1767,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1776,214 +1763,214 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:6">
@@ -4638,27 +4625,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
